--- a/A-B Test Results.xlsx
+++ b/A-B Test Results.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Test results" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Control" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Experiment" sheetId="3" r:id="rId5"/>
+    <sheet name="Test results" sheetId="1" r:id="rId1"/>
+    <sheet name="Control" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -252,22 +260,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +289,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,6 +304,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,6 +315,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -308,6 +324,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -318,6 +335,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -326,6 +344,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -334,6 +353,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -344,6 +364,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -352,6 +373,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -362,132 +384,416 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
-    <col customWidth="1" min="7" max="8" width="14.43"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>sum(Control!B2:B38)</f>
+      <c r="B2" s="3">
+        <f>SUM(Control!B2:B38)</f>
         <v>345543</v>
       </c>
       <c r="C2" s="4"/>
@@ -496,20 +802,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="str">
-        <f>sum(Control!C2:C38)</f>
+      <c r="B3">
+        <f>SUM(Control!C2:C38)</f>
         <v>28378</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" ref="D3:D4" si="1">B3/B2</f>
-        <v>0.0821</v>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D4" si="0">B3/B2</f>
+        <v>8.2125813574576823E-2</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="9" t="s">
@@ -534,175 +840,178 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="str">
-        <f>sum(Control!D2:D24)</f>
+      <c r="B4">
+        <f>SUM(Control!D2:D24)</f>
         <v>3785</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0.1334</v>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13337796884910846</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="str">
-        <f>sum(Control!C2:C24)</f>
+      <c r="G4">
+        <f>SUM(Control!C2:C24)</f>
         <v>17293</v>
       </c>
-      <c r="H4" t="str">
-        <f>sum(Experiment!C2:C24)</f>
+      <c r="H4">
+        <f>SUM(Experiment!C2:C24)</f>
         <v>17260</v>
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="str">
-        <f>sum(Control!E2:E24)</f>
+      <c r="B5" s="13">
+        <f>SUM(Control!E2:E24)</f>
         <v>2033</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="15">
         <f>B5/B3</f>
-        <v>0.0716</v>
+        <v>7.1640002819085211E-2</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="str">
-        <f>sum(Control!D2:D24)</f>
+      <c r="G5">
+        <f>SUM(Control!D2:D24)</f>
         <v>3785</v>
       </c>
-      <c r="H5" t="str">
-        <f>sum(Experiment!D2:D24)</f>
+      <c r="H5">
+        <f>SUM(Experiment!D2:D24)</f>
         <v>3423</v>
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f t="shared" ref="G6:H6" si="2">G5/G4</f>
-        <v>0.2189</v>
-      </c>
-      <c r="H6" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>0.1983</v>
-      </c>
-      <c r="I6" s="16" t="str">
-        <f t="shared" ref="I6:I7" si="4">H6-G6</f>
-        <v>-0.0206</v>
-      </c>
-      <c r="J6" s="16" t="str">
+      <c r="G6" s="16">
+        <f t="shared" ref="G6:H6" si="1">G5/G4</f>
+        <v>0.2188746891805933</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19831981460023174</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" ref="I6:I7" si="2">H6-G6</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+      <c r="J6" s="16">
         <f>(G5+H5)/(G4+H4)</f>
-        <v>0.2086</v>
-      </c>
-      <c r="K6" s="16" t="str">
-        <f t="shared" ref="K6:K7" si="5">(J6*(1-J6)*(1/$G$4+1/$H$4))^0.5</f>
-        <v>0.0044</v>
-      </c>
-      <c r="L6" s="17" t="str">
+        <v>0.20860706740369866</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" ref="K6:K7" si="3">(J6*(1-J6)*(1/$G$4+1/$H$4))^0.5</f>
+        <v>4.3716753852259364E-3</v>
+      </c>
+      <c r="L6" s="17">
         <f>-K6*1.96+H6-G6</f>
-        <v>-0.0291</v>
-      </c>
-      <c r="M6" s="18" t="str">
+        <v>-2.9123358335404387E-2</v>
+      </c>
+      <c r="M6" s="18">
         <f>K6*1.96+H6-G6</f>
-        <v>-0.0120</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+        <v>-1.1986390825318743E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="41" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="19" t="str">
-        <f t="shared" ref="G7:H7" si="3">G6/G4</f>
-        <v>0.0000</v>
-      </c>
-      <c r="H7" s="19" t="str">
+      <c r="G7" s="19">
+        <f t="shared" ref="G7:H7" si="4">G6/G4</f>
+        <v>1.2656837401294934E-5</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="4"/>
+        <v>1.1490139895726056E-5</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="2"/>
+        <v>-1.1666975055688774E-6</v>
+      </c>
+      <c r="J7" s="19">
+        <f>(G6+H6)/(G4+H4)</f>
+        <v>1.2074045778393337E-5</v>
+      </c>
+      <c r="K7" s="19">
         <f t="shared" si="3"/>
-        <v>0.0000</v>
-      </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>0.0000</v>
-      </c>
-      <c r="J7" s="19" t="str">
-        <f>(G6+H6)/(G4+H4)</f>
-        <v>0.0000</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>0.0000</v>
-      </c>
-      <c r="L7" s="20" t="str">
+        <v>3.738618071054175E-5</v>
+      </c>
+      <c r="L7" s="20">
         <f>-1.96*K7+H7-G7</f>
-        <v>-0.0001</v>
-      </c>
-      <c r="M7" s="21" t="str">
+        <v>-7.4443611698230715E-5</v>
+      </c>
+      <c r="M7" s="21">
         <f>1.96*K7+H7-G7</f>
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7.211021668709295E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f>sum(Experiment!B2:B38)</f>
+      <c r="B8" s="3">
+        <f>SUM(Experiment!B2:B38)</f>
         <v>344660</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="str">
-        <f>sum(Experiment!C2:C38)</f>
+      <c r="B9">
+        <f>SUM(Experiment!C2:C38)</f>
         <v>28325</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" ref="D9:D10" si="6">B9/B8</f>
-        <v>0.0822</v>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D10" si="5">B9/B8</f>
+        <v>8.2182440666163759E-2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="str">
-        <f>sum(Experiment!D2:D24)</f>
+      <c r="B10">
+        <f>SUM(Experiment!D2:D24)</f>
         <v>3423</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>0.1208</v>
+      <c r="D10" s="8">
+        <f t="shared" si="5"/>
+        <v>0.12084730803177406</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="9" t="s">
@@ -712,55 +1021,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13" t="str">
-        <f>sum(Experiment!E2:E24)</f>
+      <c r="B11" s="13">
+        <f>SUM(Experiment!E2:E24)</f>
         <v>1945</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="15" t="str">
+      <c r="D11" s="15">
         <f>B11/B9</f>
-        <v>0.0687</v>
+        <v>6.8667255075022068E-2</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <f>Experiment!F25</f>
         <v>4</v>
       </c>
-      <c r="H11" s="23" t="str">
+      <c r="H11" s="23">
         <f>Experiment!G25</f>
         <v>10</v>
       </c>
-      <c r="I11" t="str">
-        <f>Experiment!H25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <f>Experiment!F26</f>
         <v>23</v>
       </c>
-      <c r="H12" s="23" t="str">
+      <c r="H12" s="23">
         <f>Experiment!G26</f>
         <v>23</v>
       </c>
-      <c r="I12" t="str">
-        <f>Experiment!H26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -770,13 +1071,13 @@
         <v>24</v>
       </c>
       <c r="G13" s="24">
-        <v>0.0026</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="H13" s="25">
-        <v>0.6776</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.67759999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -787,63 +1088,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="26" t="str">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="26">
         <f>D9-'Test results'!D3</f>
-        <v>0.0001</v>
-      </c>
-      <c r="B15" s="16" t="str">
+        <v>5.6627091586936018E-5</v>
+      </c>
+      <c r="B15" s="16">
         <f>(B9+'Test results'!B3)/'Test results'!B24</f>
-        <v>0.0822</v>
-      </c>
-      <c r="C15" s="8" t="str">
+        <v>8.2154090897895257E-2</v>
+      </c>
+      <c r="C15" s="8">
         <f>(B15*(1-B15)*(1/B8+1/'Test results'!B2))^0.5</f>
-        <v>0.0007</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6.6106081563872224E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="26"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="28"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="26"/>
-      <c r="B18" s="29" t="str">
+      <c r="B18" s="29">
         <f>-C15*1.96</f>
-        <v>-0.0013</v>
-      </c>
-      <c r="C18" s="28" t="str">
+        <v>-1.2956791986518956E-3</v>
+      </c>
+      <c r="C18" s="28">
         <f>C15*1.96</f>
-        <v>0.0013</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1.2956791986518956E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="26"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="21" t="b">
         <f>AND(B18&lt;A15,C18&gt;A15)</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -864,62 +1165,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <f>'Test results'!B8+'Test results'!B2</f>
         <v>690203</v>
       </c>
-      <c r="C24" s="16" t="str">
-        <f t="shared" ref="C24:C25" si="7">(0.5*0.5/B24)^0.5</f>
-        <v>0.0006</v>
-      </c>
-      <c r="D24" s="16" t="str">
-        <f t="shared" ref="D24:D25" si="8">0.5-C24*1.96</f>
-        <v>0.4988</v>
-      </c>
-      <c r="E24" s="32" t="str">
-        <f t="shared" ref="E24:E25" si="9">0.5+C24*1.96</f>
-        <v>0.5012</v>
-      </c>
-      <c r="F24" s="16" t="str">
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:C25" si="6">(0.5*0.5/B24)^0.5</f>
+        <v>6.0184074029432473E-4</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D25" si="7">0.5-C24*1.96</f>
+        <v>0.49882039214902313</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" ref="E24:E25" si="8">0.5+C24*1.96</f>
+        <v>0.50117960785097693</v>
+      </c>
+      <c r="F24" s="16">
         <f>'Test results'!B2/B24</f>
-        <v>0.5006</v>
-      </c>
-      <c r="G24" s="33" t="str">
-        <f t="shared" ref="G24:G25" si="10">AND(F24&gt;D24,E24&gt;F24)</f>
-        <v>TRUE</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.50063966688061334</v>
+      </c>
+      <c r="G24" s="33" t="b">
+        <f t="shared" ref="G24:G25" si="9">AND(F24&gt;D24,E24&gt;F24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="13" t="str">
+      <c r="B25" s="13">
         <f>'Test results'!B9+'Test results'!B3</f>
         <v>56703</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="19">
+        <f t="shared" si="6"/>
+        <v>2.0997470796992519E-3</v>
+      </c>
+      <c r="D25" s="19">
         <f t="shared" si="7"/>
-        <v>0.0021</v>
-      </c>
-      <c r="D25" s="19" t="str">
+        <v>0.49588449572378945</v>
+      </c>
+      <c r="E25" s="34">
         <f t="shared" si="8"/>
-        <v>0.4959</v>
-      </c>
-      <c r="E25" s="34" t="str">
+        <v>0.50411550427621055</v>
+      </c>
+      <c r="F25" s="19">
+        <f>'Test results'!B3/B25</f>
+        <v>0.50046734740666277</v>
+      </c>
+      <c r="G25" s="35" t="b">
         <f t="shared" si="9"/>
-        <v>0.5041</v>
-      </c>
-      <c r="F25" s="19" t="str">
-        <f>'Test results'!B3/B25</f>
-        <v>0.5005</v>
-      </c>
-      <c r="G25" s="35" t="str">
-        <f t="shared" si="10"/>
-        <v>TRUE</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -927,21 +1228,27 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
@@ -958,587 +1265,587 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="37">
-        <v>7723.0</v>
+        <v>7723</v>
       </c>
       <c r="C2" s="37">
-        <v>687.0</v>
+        <v>687</v>
       </c>
       <c r="D2" s="37">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="E2" s="37">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="37">
-        <v>9102.0</v>
+        <v>9102</v>
       </c>
       <c r="C3" s="37">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="D3" s="37">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="E3" s="37">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="37">
-        <v>10511.0</v>
+        <v>10511</v>
       </c>
       <c r="C4" s="37">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D4" s="37">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E4" s="37">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="37">
-        <v>9871.0</v>
+        <v>9871</v>
       </c>
       <c r="C5" s="37">
-        <v>836.0</v>
+        <v>836</v>
       </c>
       <c r="D5" s="37">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E5" s="37">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="37">
-        <v>10014.0</v>
+        <v>10014</v>
       </c>
       <c r="C6" s="37">
-        <v>837.0</v>
+        <v>837</v>
       </c>
       <c r="D6" s="37">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="E6" s="37">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="37">
-        <v>9670.0</v>
+        <v>9670</v>
       </c>
       <c r="C7" s="37">
-        <v>823.0</v>
+        <v>823</v>
       </c>
       <c r="D7" s="37">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E7" s="37">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="37">
-        <v>9008.0</v>
+        <v>9008</v>
       </c>
       <c r="C8" s="37">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="D8" s="37">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="E8" s="37">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="37">
-        <v>7434.0</v>
+        <v>7434</v>
       </c>
       <c r="C9" s="37">
-        <v>632.0</v>
+        <v>632</v>
       </c>
       <c r="D9" s="37">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E9" s="37">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="37">
-        <v>8459.0</v>
+        <v>8459</v>
       </c>
       <c r="C10" s="37">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="D10" s="37">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="E10" s="37">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="37">
-        <v>10667.0</v>
+        <v>10667</v>
       </c>
       <c r="C11" s="37">
-        <v>861.0</v>
+        <v>861</v>
       </c>
       <c r="D11" s="37">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E11" s="37">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="37">
-        <v>10660.0</v>
+        <v>10660</v>
       </c>
       <c r="C12" s="37">
-        <v>867.0</v>
+        <v>867</v>
       </c>
       <c r="D12" s="37">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="E12" s="37">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="37">
-        <v>9947.0</v>
+        <v>9947</v>
       </c>
       <c r="C13" s="37">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="D13" s="37">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E13" s="37">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="37">
-        <v>8324.0</v>
+        <v>8324</v>
       </c>
       <c r="C14" s="37">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="D14" s="37">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E14" s="37">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="37">
-        <v>9434.0</v>
+        <v>9434</v>
       </c>
       <c r="C15" s="37">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="D15" s="37">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E15" s="37">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="37">
-        <v>8687.0</v>
+        <v>8687</v>
       </c>
       <c r="C16" s="37">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="D16" s="37">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E16" s="37">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="37">
-        <v>8896.0</v>
+        <v>8896</v>
       </c>
       <c r="C17" s="37">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="D17" s="37">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E17" s="37">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37">
-        <v>9535.0</v>
+        <v>9535</v>
       </c>
       <c r="C18" s="37">
-        <v>759.0</v>
+        <v>759</v>
       </c>
       <c r="D18" s="37">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="E18" s="37">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="37">
-        <v>9363.0</v>
+        <v>9363</v>
       </c>
       <c r="C19" s="37">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="D19" s="37">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="E19" s="37">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="37">
-        <v>9327.0</v>
+        <v>9327</v>
       </c>
       <c r="C20" s="37">
-        <v>739.0</v>
+        <v>739</v>
       </c>
       <c r="D20" s="37">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="E20" s="37">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="37">
-        <v>9345.0</v>
+        <v>9345</v>
       </c>
       <c r="C21" s="37">
-        <v>734.0</v>
+        <v>734</v>
       </c>
       <c r="D21" s="37">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E21" s="37">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="37">
-        <v>8890.0</v>
+        <v>8890</v>
       </c>
       <c r="C22" s="37">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="D22" s="37">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E22" s="37">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="37">
-        <v>8460.0</v>
+        <v>8460</v>
       </c>
       <c r="C23" s="37">
-        <v>681.0</v>
+        <v>681</v>
       </c>
       <c r="D23" s="37">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E23" s="37">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="37">
-        <v>8836.0</v>
+        <v>8836</v>
       </c>
       <c r="C24" s="37">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="D24" s="37">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="E24" s="37">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="37">
-        <v>9437.0</v>
+        <v>9437</v>
       </c>
       <c r="C25" s="37">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37">
-        <v>9420.0</v>
+        <v>9420</v>
       </c>
       <c r="C26" s="37">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="37">
-        <v>9570.0</v>
+        <v>9570</v>
       </c>
       <c r="C27" s="37">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="37">
-        <v>9921.0</v>
+        <v>9921</v>
       </c>
       <c r="C28" s="37">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="37">
-        <v>9424.0</v>
+        <v>9424</v>
       </c>
       <c r="C29" s="37">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="37">
-        <v>9010.0</v>
+        <v>9010</v>
       </c>
       <c r="C30" s="37">
-        <v>756.0</v>
+        <v>756</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="37">
-        <v>9656.0</v>
+        <v>9656</v>
       </c>
       <c r="C31" s="37">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="37">
-        <v>10419.0</v>
+        <v>10419</v>
       </c>
       <c r="C32" s="37">
-        <v>874.0</v>
+        <v>874</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="37">
-        <v>9880.0</v>
+        <v>9880</v>
       </c>
       <c r="C33" s="37">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="37">
-        <v>10134.0</v>
+        <v>10134</v>
       </c>
       <c r="C34" s="37">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="37">
-        <v>9717.0</v>
+        <v>9717</v>
       </c>
       <c r="C35" s="37">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="37">
-        <v>9192.0</v>
+        <v>9192</v>
       </c>
       <c r="C36" s="37">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="37">
-        <v>8630.0</v>
+        <v>8630</v>
       </c>
       <c r="C37" s="37">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="37">
-        <v>8970.0</v>
+        <v>8970</v>
       </c>
       <c r="C38" s="37">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="36"/>
       <c r="E39" s="38"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -1546,25 +1853,31 @@
       <c r="E40" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="12" max="12" width="15.57"/>
-    <col customWidth="1" min="13" max="13" width="16.0"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
@@ -1587,782 +1900,787 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="37">
-        <v>7716.0</v>
+        <v>7716</v>
       </c>
       <c r="C2" s="37">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="D2" s="37">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E2" s="37">
-        <v>34.0</v>
-      </c>
-      <c r="F2" t="str">
-        <f>sign(D2/C2-Control!D2/Control!C2)</f>
-        <v>-1</v>
-      </c>
-      <c r="G2" t="str">
-        <f>sign(E2/C2-Control!E2/Control!C2)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <f>SIGN(D2/C2-Control!D2/Control!C2)</f>
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <f>SIGN(E2/C2-Control!E2/Control!C2)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="37">
-        <v>9288.0</v>
+        <v>9288</v>
       </c>
       <c r="C3" s="37">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="D3" s="37">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="E3" s="37">
-        <v>91.0</v>
-      </c>
-      <c r="F3" t="str">
-        <f>sign(D3/C3-Control!D3/Control!C3)</f>
-        <v>-1</v>
-      </c>
-      <c r="G3" t="str">
-        <f>sign(E3/C3-Control!E3/Control!C3)</f>
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <f>SIGN(D3/C3-Control!D3/Control!C3)</f>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <f>SIGN(E3/C3-Control!E3/Control!C3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="37">
-        <v>10480.0</v>
+        <v>10480</v>
       </c>
       <c r="C4" s="37">
-        <v>884.0</v>
+        <v>884</v>
       </c>
       <c r="D4" s="37">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="E4" s="37">
-        <v>79.0</v>
-      </c>
-      <c r="F4" t="str">
-        <f>sign(D4/C4-Control!D4/Control!C4)</f>
-        <v>-1</v>
-      </c>
-      <c r="G4" t="str">
-        <f>sign(E4/C4-Control!E4/Control!C4)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <f>SIGN(D4/C4-Control!D4/Control!C4)</f>
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <f>SIGN(E4/C4-Control!E4/Control!C4)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="37">
-        <v>9867.0</v>
+        <v>9867</v>
       </c>
       <c r="C5" s="37">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="D5" s="37">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E5" s="37">
-        <v>92.0</v>
-      </c>
-      <c r="F5" t="str">
-        <f>sign(D5/C5-Control!D5/Control!C5)</f>
-        <v>-1</v>
-      </c>
-      <c r="G5" t="str">
-        <f>sign(E5/C5-Control!E5/Control!C5)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <f>SIGN(D5/C5-Control!D5/Control!C5)</f>
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <f>SIGN(E5/C5-Control!E5/Control!C5)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="37">
-        <v>9793.0</v>
+        <v>9793</v>
       </c>
       <c r="C6" s="37">
-        <v>832.0</v>
+        <v>832</v>
       </c>
       <c r="D6" s="37">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="E6" s="37">
-        <v>94.0</v>
-      </c>
-      <c r="F6" t="str">
-        <f>sign(D6/C6-Control!D6/Control!C6)</f>
-        <v>-1</v>
-      </c>
-      <c r="G6" t="str">
-        <f>sign(E6/C6-Control!E6/Control!C6)</f>
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <f>SIGN(D6/C6-Control!D6/Control!C6)</f>
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <f>SIGN(E6/C6-Control!E6/Control!C6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="37">
-        <v>9500.0</v>
+        <v>9500</v>
       </c>
       <c r="C7" s="37">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="D7" s="37">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E7" s="37">
-        <v>61.0</v>
-      </c>
-      <c r="F7" t="str">
-        <f>sign(D7/C7-Control!D7/Control!C7)</f>
-        <v>-1</v>
-      </c>
-      <c r="G7" t="str">
-        <f>sign(E7/C7-Control!E7/Control!C7)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <f>SIGN(D7/C7-Control!D7/Control!C7)</f>
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <f>SIGN(E7/C7-Control!E7/Control!C7)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="37">
-        <v>9088.0</v>
+        <v>9088</v>
       </c>
       <c r="C8" s="37">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="D8" s="37">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E8" s="37">
-        <v>44.0</v>
-      </c>
-      <c r="F8" t="str">
-        <f>sign(D8/C8-Control!D8/Control!C8)</f>
-        <v>-1</v>
-      </c>
-      <c r="G8" t="str">
-        <f>sign(E8/C8-Control!E8/Control!C8)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <f>SIGN(D8/C8-Control!D8/Control!C8)</f>
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <f>SIGN(E8/C8-Control!E8/Control!C8)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="37">
-        <v>7664.0</v>
+        <v>7664</v>
       </c>
       <c r="C9" s="37">
-        <v>652.0</v>
+        <v>652</v>
       </c>
       <c r="D9" s="37">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E9" s="37">
-        <v>62.0</v>
-      </c>
-      <c r="F9" t="str">
-        <f>sign(D9/C9-Control!D9/Control!C9)</f>
-        <v>-1</v>
-      </c>
-      <c r="G9" t="str">
-        <f>sign(E9/C9-Control!E9/Control!C9)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <f>SIGN(D9/C9-Control!D9/Control!C9)</f>
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <f>SIGN(E9/C9-Control!E9/Control!C9)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="37">
-        <v>8434.0</v>
+        <v>8434</v>
       </c>
       <c r="C10" s="37">
-        <v>697.0</v>
+        <v>697</v>
       </c>
       <c r="D10" s="37">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="E10" s="37">
-        <v>77.0</v>
-      </c>
-      <c r="F10" t="str">
-        <f>sign(D10/C10-Control!D10/Control!C10)</f>
-        <v>-1</v>
-      </c>
-      <c r="G10" t="str">
-        <f>sign(E10/C10-Control!E10/Control!C10)</f>
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <f>SIGN(D10/C10-Control!D10/Control!C10)</f>
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <f>SIGN(E10/C10-Control!E10/Control!C10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="37">
-        <v>10496.0</v>
+        <v>10496</v>
       </c>
       <c r="C11" s="37">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="D11" s="37">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E11" s="37">
-        <v>98.0</v>
-      </c>
-      <c r="F11" t="str">
-        <f>sign(D11/C11-Control!D11/Control!C11)</f>
-        <v>-1</v>
-      </c>
-      <c r="G11" t="str">
-        <f>sign(E11/C11-Control!E11/Control!C11)</f>
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <f>SIGN(D11/C11-Control!D11/Control!C11)</f>
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <f>SIGN(E11/C11-Control!E11/Control!C11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="37">
-        <v>10551.0</v>
+        <v>10551</v>
       </c>
       <c r="C12" s="37">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="D12" s="37">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="E12" s="37">
-        <v>71.0</v>
-      </c>
-      <c r="F12" t="str">
-        <f>sign(D12/C12-Control!D12/Control!C12)</f>
-        <v>-1</v>
-      </c>
-      <c r="G12" t="str">
-        <f>sign(E12/C12-Control!E12/Control!C12)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <f>SIGN(D12/C12-Control!D12/Control!C12)</f>
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <f>SIGN(E12/C12-Control!E12/Control!C12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="37">
-        <v>9737.0</v>
+        <v>9737</v>
       </c>
       <c r="C13" s="37">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="D13" s="37">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E13" s="37">
-        <v>70.0</v>
-      </c>
-      <c r="F13" t="str">
-        <f>sign(D13/C13-Control!D13/Control!C13)</f>
-        <v>-1</v>
-      </c>
-      <c r="G13" t="str">
-        <f>sign(E13/C13-Control!E13/Control!C13)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <f>SIGN(D13/C13-Control!D13/Control!C13)</f>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f>SIGN(E13/C13-Control!E13/Control!C13)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="37">
-        <v>8176.0</v>
+        <v>8176</v>
       </c>
       <c r="C14" s="37">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="D14" s="37">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="E14" s="37">
-        <v>68.0</v>
-      </c>
-      <c r="F14" t="str">
-        <f>sign(D14/C14-Control!D14/Control!C14)</f>
-        <v>-1</v>
-      </c>
-      <c r="G14" t="str">
-        <f>sign(E14/C14-Control!E14/Control!C14)</f>
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <f>SIGN(D14/C14-Control!D14/Control!C14)</f>
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <f>SIGN(E14/C14-Control!E14/Control!C14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="37">
-        <v>9402.0</v>
+        <v>9402</v>
       </c>
       <c r="C15" s="37">
-        <v>697.0</v>
+        <v>697</v>
       </c>
       <c r="D15" s="37">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="E15" s="37">
-        <v>94.0</v>
-      </c>
-      <c r="F15" t="str">
-        <f>sign(D15/C15-Control!D15/Control!C15)</f>
-        <v>-1</v>
-      </c>
-      <c r="G15" t="str">
-        <f>sign(E15/C15-Control!E15/Control!C15)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <f>SIGN(D15/C15-Control!D15/Control!C15)</f>
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <f>SIGN(E15/C15-Control!E15/Control!C15)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="37">
-        <v>8669.0</v>
+        <v>8669</v>
       </c>
       <c r="C16" s="37">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="D16" s="37">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E16" s="37">
-        <v>81.0</v>
-      </c>
-      <c r="F16" t="str">
-        <f>sign(D16/C16-Control!D16/Control!C16)</f>
-        <v>-1</v>
-      </c>
-      <c r="G16" t="str">
-        <f>sign(E16/C16-Control!E16/Control!C16)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <f>SIGN(D16/C16-Control!D16/Control!C16)</f>
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <f>SIGN(E16/C16-Control!E16/Control!C16)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="37">
-        <v>8881.0</v>
+        <v>8881</v>
       </c>
       <c r="C17" s="37">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="D17" s="37">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E17" s="37">
-        <v>101.0</v>
-      </c>
-      <c r="F17" t="str">
-        <f>sign(D17/C17-Control!D17/Control!C17)</f>
-        <v>-1</v>
-      </c>
-      <c r="G17" t="str">
-        <f>sign(E17/C17-Control!E17/Control!C17)</f>
+        <v>101</v>
+      </c>
+      <c r="F17">
+        <f>SIGN(D17/C17-Control!D17/Control!C17)</f>
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <f>SIGN(E17/C17-Control!E17/Control!C17)</f>
         <v>-1</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="37">
-        <v>9655.0</v>
+        <v>9655</v>
       </c>
       <c r="C18" s="37">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="D18" s="37">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E18" s="37">
-        <v>119.0</v>
-      </c>
-      <c r="F18" t="str">
-        <f>sign(D18/C18-Control!D18/Control!C18)</f>
-        <v>-1</v>
-      </c>
-      <c r="G18" t="str">
-        <f>sign(E18/C18-Control!E18/Control!C18)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>119</v>
+      </c>
+      <c r="F18">
+        <f>SIGN(D18/C18-Control!D18/Control!C18)</f>
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <f>SIGN(E18/C18-Control!E18/Control!C18)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="37">
-        <v>9396.0</v>
+        <v>9396</v>
       </c>
       <c r="C19" s="37">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="D19" s="37">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E19" s="37">
-        <v>120.0</v>
-      </c>
-      <c r="F19" t="str">
-        <f>sign(D19/C19-Control!D19/Control!C19)</f>
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <f>SIGN(D19/C19-Control!D19/Control!C19)</f>
         <v>1</v>
       </c>
-      <c r="G19" t="str">
-        <f>sign(E19/C19-Control!E19/Control!C19)</f>
+      <c r="G19">
+        <f>SIGN(E19/C19-Control!E19/Control!C19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="37">
-        <v>9262.0</v>
+        <v>9262</v>
       </c>
       <c r="C20" s="37">
-        <v>727.0</v>
+        <v>727</v>
       </c>
       <c r="D20" s="37">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="E20" s="37">
-        <v>96.0</v>
-      </c>
-      <c r="F20" t="str">
-        <f>sign(D20/C20-Control!D20/Control!C20)</f>
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <f>SIGN(D20/C20-Control!D20/Control!C20)</f>
         <v>1</v>
       </c>
-      <c r="G20" t="str">
-        <f>sign(E20/C20-Control!E20/Control!C20)</f>
+      <c r="G20">
+        <f>SIGN(E20/C20-Control!E20/Control!C20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="37">
-        <v>9308.0</v>
+        <v>9308</v>
       </c>
       <c r="C21" s="37">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="D21" s="37">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="E21" s="37">
-        <v>67.0</v>
-      </c>
-      <c r="F21" t="str">
-        <f>sign(D21/C21-Control!D21/Control!C21)</f>
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <f>SIGN(D21/C21-Control!D21/Control!C21)</f>
         <v>1</v>
       </c>
-      <c r="G21" t="str">
-        <f>sign(E21/C21-Control!E21/Control!C21)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="G21">
+        <f>SIGN(E21/C21-Control!E21/Control!C21)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="37">
-        <v>8715.0</v>
+        <v>8715</v>
       </c>
       <c r="C22" s="37">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="D22" s="37">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="E22" s="37">
-        <v>123.0</v>
-      </c>
-      <c r="F22" t="str">
-        <f>sign(D22/C22-Control!D22/Control!C22)</f>
+        <v>123</v>
+      </c>
+      <c r="F22">
+        <f>SIGN(D22/C22-Control!D22/Control!C22)</f>
         <v>1</v>
       </c>
-      <c r="G22" t="str">
-        <f>sign(E22/C22-Control!E22/Control!C22)</f>
+      <c r="G22">
+        <f>SIGN(E22/C22-Control!E22/Control!C22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="37">
-        <v>8448.0</v>
+        <v>8448</v>
       </c>
       <c r="C23" s="37">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="D23" s="37">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="E23" s="37">
-        <v>100.0</v>
-      </c>
-      <c r="F23" t="str">
-        <f>sign(D23/C23-Control!D23/Control!C23)</f>
-        <v>-1</v>
-      </c>
-      <c r="G23" t="str">
-        <f>sign(E23/C23-Control!E23/Control!C23)</f>
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <f>SIGN(D23/C23-Control!D23/Control!C23)</f>
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <f>SIGN(E23/C23-Control!E23/Control!C23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="37">
-        <v>8836.0</v>
+        <v>8836</v>
       </c>
       <c r="C24" s="37">
-        <v>724.0</v>
+        <v>724</v>
       </c>
       <c r="D24" s="37">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="E24" s="37">
-        <v>103.0</v>
-      </c>
-      <c r="F24" t="str">
-        <f>sign(D24/C24-Control!D24/Control!C24)</f>
-        <v>-1</v>
-      </c>
-      <c r="G24" t="str">
-        <f>sign(E24/C24-Control!E24/Control!C24)</f>
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <f>SIGN(D24/C24-Control!D24/Control!C24)</f>
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <f>SIGN(E24/C24-Control!E24/Control!C24)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="37">
-        <v>9359.0</v>
+        <v>9359</v>
       </c>
       <c r="C25" s="37">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="22" t="str">
-        <f t="shared" ref="F25:G25" si="1">COUNTIF(F2:F24,"=1")</f>
+      <c r="F25" s="22">
+        <f t="shared" ref="F25:G25" si="0">COUNTIF(F2:F24,"=1")</f>
         <v>4</v>
       </c>
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="37">
-        <v>9427.0</v>
+        <v>9427</v>
       </c>
       <c r="C26" s="37">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
-      <c r="F26" s="30" t="str">
-        <f t="shared" ref="F26:G26" si="2">count(F2:F24)</f>
+      <c r="F26" s="30">
+        <f t="shared" ref="F26:G26" si="1">COUNT(F2:F24)</f>
         <v>23</v>
       </c>
-      <c r="G26" s="40" t="str">
-        <f t="shared" si="2"/>
+      <c r="G26" s="40">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="37">
-        <v>9633.0</v>
+        <v>9633</v>
       </c>
       <c r="C27" s="37">
-        <v>808.0</v>
+        <v>808</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="37">
-        <v>9842.0</v>
+        <v>9842</v>
       </c>
       <c r="C28" s="37">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="37">
-        <v>9272.0</v>
+        <v>9272</v>
       </c>
       <c r="C29" s="37">
-        <v>767.0</v>
+        <v>767</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="37">
-        <v>8969.0</v>
+        <v>8969</v>
       </c>
       <c r="C30" s="37">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="37">
-        <v>9697.0</v>
+        <v>9697</v>
       </c>
       <c r="C31" s="37">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="37">
-        <v>10445.0</v>
+        <v>10445</v>
       </c>
       <c r="C32" s="37">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="37">
-        <v>9931.0</v>
+        <v>9931</v>
       </c>
       <c r="C33" s="37">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="37">
-        <v>10042.0</v>
+        <v>10042</v>
       </c>
       <c r="C34" s="37">
-        <v>802.0</v>
+        <v>802</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="37">
-        <v>9721.0</v>
+        <v>9721</v>
       </c>
       <c r="C35" s="37">
-        <v>829.0</v>
+        <v>829</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="37">
-        <v>9304.0</v>
+        <v>9304</v>
       </c>
       <c r="C36" s="37">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="37">
-        <v>8668.0</v>
+        <v>8668</v>
       </c>
       <c r="C37" s="37">
-        <v>724.0</v>
+        <v>724</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="37">
-        <v>8988.0</v>
+        <v>8988</v>
       </c>
       <c r="C38" s="37">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>